--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2102,28 +2102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.91733010504855</v>
+        <v>75.09881434999471</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.24504618197092</v>
+        <v>102.7535109194829</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.68201019550281</v>
+        <v>92.94686005281159</v>
       </c>
       <c r="AD2" t="n">
-        <v>57917.33010504855</v>
+        <v>75098.81434999472</v>
       </c>
       <c r="AE2" t="n">
-        <v>79245.04618197092</v>
+        <v>102753.5109194829</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.874132577825156e-06</v>
+        <v>9.910192316072057e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.421296296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>71682.01019550281</v>
+        <v>92946.86005281159</v>
       </c>
     </row>
     <row r="3">
@@ -2208,28 +2208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.39991614742613</v>
+        <v>61.66665173839288</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.7499240589454</v>
+        <v>84.3750334491066</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.95203656982603</v>
+        <v>76.32239867784705</v>
       </c>
       <c r="AD3" t="n">
-        <v>44399.91614742613</v>
+        <v>61666.65173839288</v>
       </c>
       <c r="AE3" t="n">
-        <v>60749.92405894541</v>
+        <v>84375.0334491066</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.576358760974891e-06</v>
+        <v>1.236423122927037e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.541666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>54952.03656982604</v>
+        <v>76322.39867784704</v>
       </c>
     </row>
     <row r="4">
@@ -2314,28 +2314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>43.63542923730208</v>
+        <v>60.73157262767663</v>
       </c>
       <c r="AB4" t="n">
-        <v>59.70391934173205</v>
+        <v>83.09561695704639</v>
       </c>
       <c r="AC4" t="n">
-        <v>54.00586107474636</v>
+        <v>75.16508790011633</v>
       </c>
       <c r="AD4" t="n">
-        <v>43635.42923730208</v>
+        <v>60731.57262767663</v>
       </c>
       <c r="AE4" t="n">
-        <v>59703.91934173205</v>
+        <v>83095.61695704638</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.895145411959678e-06</v>
+        <v>1.28238145997231e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.414351851851853</v>
       </c>
       <c r="AH4" t="n">
-        <v>54005.86107474635</v>
+        <v>75165.08790011633</v>
       </c>
     </row>
     <row r="5">
@@ -2420,28 +2420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>42.50251438078465</v>
+        <v>51.13597168481907</v>
       </c>
       <c r="AB5" t="n">
-        <v>58.15381525436967</v>
+        <v>69.96649241899866</v>
       </c>
       <c r="AC5" t="n">
-        <v>52.6036967458966</v>
+        <v>63.28898858113367</v>
       </c>
       <c r="AD5" t="n">
-        <v>42502.51438078465</v>
+        <v>51135.97168481907</v>
       </c>
       <c r="AE5" t="n">
-        <v>58153.81525436967</v>
+        <v>69966.49241899865</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.324640837289756e-06</v>
+        <v>1.34430028704912e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.258101851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>52603.6967458966</v>
+        <v>63288.98858113367</v>
       </c>
     </row>
     <row r="6">
@@ -2526,28 +2526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>42.54345870901376</v>
+        <v>51.17691601304818</v>
       </c>
       <c r="AB6" t="n">
-        <v>58.20983709058898</v>
+        <v>70.02251425521796</v>
       </c>
       <c r="AC6" t="n">
-        <v>52.6543719366943</v>
+        <v>63.33966377193137</v>
       </c>
       <c r="AD6" t="n">
-        <v>42543.45870901376</v>
+        <v>51176.91601304818</v>
       </c>
       <c r="AE6" t="n">
-        <v>58209.83709058898</v>
+        <v>70022.51425521796</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.321437215261738e-06</v>
+        <v>1.34383843226168e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.258101851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>52654.3719366943</v>
+        <v>63339.66377193137</v>
       </c>
     </row>
   </sheetData>
@@ -2823,28 +2823,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.65904779280412</v>
+        <v>61.49389490280996</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.10447940823277</v>
+        <v>84.13865992516847</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.27275365419909</v>
+        <v>76.10858431128118</v>
       </c>
       <c r="AD2" t="n">
-        <v>44659.04779280412</v>
+        <v>61493.89490280996</v>
       </c>
       <c r="AE2" t="n">
-        <v>61104.47940823277</v>
+        <v>84138.65992516847</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.089451741120165e-06</v>
+        <v>1.184265303229618e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>55272.75365419908</v>
+        <v>76108.58431128117</v>
       </c>
     </row>
     <row r="3">
@@ -2929,28 +2929,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.09505233477385</v>
+        <v>58.75930724419094</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.59630770689699</v>
+        <v>80.3970764491548</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.09939693639066</v>
+        <v>72.72409231087164</v>
       </c>
       <c r="AD3" t="n">
-        <v>42095.05233477385</v>
+        <v>58759.30724419095</v>
       </c>
       <c r="AE3" t="n">
-        <v>57596.30770689699</v>
+        <v>80397.07644915479</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.360871723159267e-06</v>
+        <v>1.370396405651305e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.356481481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>52099.39693639066</v>
+        <v>72724.09231087164</v>
       </c>
     </row>
     <row r="4">
@@ -3035,28 +3035,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>40.82514655926334</v>
+        <v>49.24265962282057</v>
       </c>
       <c r="AB4" t="n">
-        <v>55.85876660056309</v>
+        <v>67.37597932874046</v>
       </c>
       <c r="AC4" t="n">
-        <v>50.52768431458583</v>
+        <v>60.94571042440094</v>
       </c>
       <c r="AD4" t="n">
-        <v>40825.14655926334</v>
+        <v>49242.65962282057</v>
       </c>
       <c r="AE4" t="n">
-        <v>55858.76660056309</v>
+        <v>67375.97932874046</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.987563009921979e-06</v>
+        <v>1.462141652486368e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.148148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>50527.68431458583</v>
+        <v>60945.71042440094</v>
       </c>
     </row>
   </sheetData>
@@ -3332,28 +3332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.86904582957434</v>
+        <v>44.63642407236778</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.44585505138235</v>
+        <v>61.07352463584367</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.63137344657373</v>
+        <v>55.24475316184149</v>
       </c>
       <c r="AD2" t="n">
-        <v>36869.04582957434</v>
+        <v>44636.42407236778</v>
       </c>
       <c r="AE2" t="n">
-        <v>50445.85505138235</v>
+        <v>61073.52463584367</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.133096246438425e-05</v>
+        <v>1.753039754613003e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.096064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>45631.37344657374</v>
+        <v>55244.75316184149</v>
       </c>
     </row>
     <row r="3">
@@ -3438,28 +3438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.88005101469724</v>
+        <v>44.64742925749069</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.46091283118194</v>
+        <v>61.08858241564332</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.64499413300302</v>
+        <v>55.25837384827081</v>
       </c>
       <c r="AD3" t="n">
-        <v>36880.05101469724</v>
+        <v>44647.42925749069</v>
       </c>
       <c r="AE3" t="n">
-        <v>50460.91283118194</v>
+        <v>61088.58241564332</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.134157163921688e-05</v>
+        <v>1.754681124911748e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.096064814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>45644.99413300303</v>
+        <v>55258.37384827081</v>
       </c>
     </row>
   </sheetData>
@@ -3735,28 +3735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.63141385021465</v>
+        <v>55.50375267311448</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.22544884428026</v>
+        <v>75.94268306007905</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.05024811258192</v>
+        <v>68.69481997506752</v>
       </c>
       <c r="AD2" t="n">
-        <v>39631.41385021465</v>
+        <v>55503.75267311448</v>
       </c>
       <c r="AE2" t="n">
-        <v>54225.44884428026</v>
+        <v>75942.68306007904</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.995653077561168e-06</v>
+        <v>1.510637020673121e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.356481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>49050.24811258192</v>
+        <v>68694.81997506751</v>
       </c>
     </row>
     <row r="3">
@@ -3841,28 +3841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.30094753772202</v>
+        <v>46.32250255802042</v>
       </c>
       <c r="AB3" t="n">
-        <v>52.40504613950552</v>
+        <v>63.38049160444545</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.40358208699421</v>
+        <v>57.33154644080913</v>
       </c>
       <c r="AD3" t="n">
-        <v>38300.94753772202</v>
+        <v>46322.50255802042</v>
       </c>
       <c r="AE3" t="n">
-        <v>52405.04613950552</v>
+        <v>63380.49160444544</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.093195534555469e-05</v>
+        <v>1.652139817698598e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.072916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>47403.58208699421</v>
+        <v>57331.54644080914</v>
       </c>
     </row>
   </sheetData>
@@ -4138,28 +4138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.72735786574886</v>
+        <v>43.28625901144343</v>
       </c>
       <c r="AB2" t="n">
-        <v>48.88374721156571</v>
+        <v>59.2261692344093</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.21835098655241</v>
+        <v>53.57370676713985</v>
       </c>
       <c r="AD2" t="n">
-        <v>35727.35786574886</v>
+        <v>43286.25901144343</v>
       </c>
       <c r="AE2" t="n">
-        <v>48883.74721156571</v>
+        <v>59226.1692344093</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.153928751786623e-05</v>
+        <v>1.823770533909705e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.159722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>44218.35098655241</v>
+        <v>53573.70676713985</v>
       </c>
     </row>
   </sheetData>
@@ -4435,28 +4435,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.46379763716574</v>
+        <v>70.71566388534315</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.20557364834525</v>
+        <v>96.75629108279853</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.26876100543105</v>
+        <v>87.5220064601876</v>
       </c>
       <c r="AD2" t="n">
-        <v>45463.79763716574</v>
+        <v>70715.66388534315</v>
       </c>
       <c r="AE2" t="n">
-        <v>62205.57364834525</v>
+        <v>96756.29108279853</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.848906962947937e-06</v>
+        <v>1.144281384420011e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.969907407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>56268.76100543104</v>
+        <v>87522.00646018759</v>
       </c>
     </row>
     <row r="3">
@@ -4541,28 +4541,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.08399944832636</v>
+        <v>59.8617725526146</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.94942877709052</v>
+        <v>81.90551812147599</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.3233780306598</v>
+        <v>74.08857042709819</v>
       </c>
       <c r="AD3" t="n">
-        <v>43083.99944832636</v>
+        <v>59861.7725526146</v>
       </c>
       <c r="AE3" t="n">
-        <v>58949.42877709052</v>
+        <v>81905.51812147599</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.974409790215862e-06</v>
+        <v>1.308366898420175e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.472222222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>53323.3780306598</v>
+        <v>74088.5704270982</v>
       </c>
     </row>
     <row r="4">
@@ -4647,28 +4647,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>41.33205117662428</v>
+        <v>49.80632333761888</v>
       </c>
       <c r="AB4" t="n">
-        <v>56.55233586108639</v>
+        <v>68.1472088904152</v>
       </c>
       <c r="AC4" t="n">
-        <v>51.15506029831743</v>
+        <v>61.64333491913718</v>
       </c>
       <c r="AD4" t="n">
-        <v>41332.05117662429</v>
+        <v>49806.32333761889</v>
       </c>
       <c r="AE4" t="n">
-        <v>56552.33586108639</v>
+        <v>68147.2088904152</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.779501819307773e-06</v>
+        <v>1.425740161472435e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.188657407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>51155.06029831743</v>
+        <v>61643.33491913718</v>
       </c>
     </row>
     <row r="5">
@@ -4753,28 +4753,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>41.30593052113247</v>
+        <v>49.78020268212705</v>
       </c>
       <c r="AB5" t="n">
-        <v>56.51659642788066</v>
+        <v>68.11146945720931</v>
       </c>
       <c r="AC5" t="n">
-        <v>51.12273178645614</v>
+        <v>61.61100640727584</v>
       </c>
       <c r="AD5" t="n">
-        <v>41305.93052113247</v>
+        <v>49780.20268212706</v>
       </c>
       <c r="AE5" t="n">
-        <v>56516.59642788066</v>
+        <v>68111.46945720931</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.78790109413813e-06</v>
+        <v>1.426964680233631e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.18287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>51122.73178645614</v>
+        <v>61611.00640727584</v>
       </c>
     </row>
   </sheetData>
@@ -5050,28 +5050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.01314387121717</v>
+        <v>42.44859536081427</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.90652811535452</v>
+        <v>58.08004087250695</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.33439630934509</v>
+        <v>52.53696328749583</v>
       </c>
       <c r="AD2" t="n">
-        <v>35013.14387121717</v>
+        <v>42448.59536081427</v>
       </c>
       <c r="AE2" t="n">
-        <v>47906.52811535452</v>
+        <v>58080.04087250695</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.164491611818913e-05</v>
+        <v>1.865789098509533e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.200231481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>43334.39630934509</v>
+        <v>52536.96328749583</v>
       </c>
     </row>
   </sheetData>
@@ -5347,28 +5347,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.48146392455856</v>
+        <v>58.94788956850415</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.12501309148056</v>
+        <v>80.65510310494496</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.57764342100953</v>
+        <v>72.95749326477596</v>
       </c>
       <c r="AD2" t="n">
-        <v>42481.46392455856</v>
+        <v>58947.88956850415</v>
       </c>
       <c r="AE2" t="n">
-        <v>58125.01309148056</v>
+        <v>80655.10310494495</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.825609812491032e-06</v>
+        <v>1.310464669059643e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.668981481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>52577.64342100953</v>
+        <v>72957.49326477596</v>
       </c>
     </row>
     <row r="3">
@@ -5453,28 +5453,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.67132876606466</v>
+        <v>47.90463109659159</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.28006219306778</v>
+        <v>65.54522966950242</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.09964924001166</v>
+        <v>59.28968494316671</v>
       </c>
       <c r="AD3" t="n">
-        <v>39671.32876606466</v>
+        <v>47904.63109659159</v>
       </c>
       <c r="AE3" t="n">
-        <v>54280.06219306779</v>
+        <v>65545.22966950241</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.042552342574313e-05</v>
+        <v>1.548026753522864e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.107638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>49099.64924001165</v>
+        <v>59289.68494316671</v>
       </c>
     </row>
     <row r="4">
@@ -5559,28 +5559,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>39.60822538192272</v>
+        <v>47.84152771244963</v>
       </c>
       <c r="AB4" t="n">
-        <v>54.19372135896037</v>
+        <v>65.45888883539459</v>
       </c>
       <c r="AC4" t="n">
-        <v>49.02154865393106</v>
+        <v>59.211584357086</v>
       </c>
       <c r="AD4" t="n">
-        <v>39608.22538192272</v>
+        <v>47841.52771244963</v>
       </c>
       <c r="AE4" t="n">
-        <v>54193.72135896037</v>
+        <v>65458.88883539459</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.044769002678042e-05</v>
+        <v>1.551318146198234e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.101851851851853</v>
       </c>
       <c r="AH4" t="n">
-        <v>49021.54865393107</v>
+        <v>59211.58435708599</v>
       </c>
     </row>
   </sheetData>
@@ -5856,28 +5856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.70619393573938</v>
+        <v>60.42320617903257</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.80074272405209</v>
+        <v>82.67369637784418</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.09344376935026</v>
+        <v>74.7834348288238</v>
       </c>
       <c r="AD2" t="n">
-        <v>43706.19393573938</v>
+        <v>60423.20617903257</v>
       </c>
       <c r="AE2" t="n">
-        <v>59800.74272405208</v>
+        <v>82673.69637784419</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.419784952474383e-06</v>
+        <v>1.238080945935939e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.767361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>54093.44376935026</v>
+        <v>74783.4348288238</v>
       </c>
     </row>
     <row r="3">
@@ -5962,28 +5962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.23955150179096</v>
+        <v>49.59814713199192</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.4257737251824</v>
+        <v>67.86237302179053</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.04057707503267</v>
+        <v>61.3856833860443</v>
       </c>
       <c r="AD3" t="n">
-        <v>41239.55150179096</v>
+        <v>49598.14713199192</v>
       </c>
       <c r="AE3" t="n">
-        <v>56425.7737251824</v>
+        <v>67862.37302179052</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.721051369327175e-06</v>
+        <v>1.429424687538071e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.263888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>51040.57707503267</v>
+        <v>61385.6833860443</v>
       </c>
     </row>
     <row r="4">
@@ -6068,28 +6068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>40.62563271667868</v>
+        <v>48.98422834687954</v>
       </c>
       <c r="AB4" t="n">
-        <v>55.58578295921054</v>
+        <v>67.0223822558149</v>
       </c>
       <c r="AC4" t="n">
-        <v>50.28075384882821</v>
+        <v>60.62586015983867</v>
       </c>
       <c r="AD4" t="n">
-        <v>40625.63271667868</v>
+        <v>48984.22834687954</v>
       </c>
       <c r="AE4" t="n">
-        <v>55585.78295921054</v>
+        <v>67022.3822558149</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.995663227591611e-06</v>
+        <v>1.469804781704887e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.177083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>50280.75384882822</v>
+        <v>60625.86015983867</v>
       </c>
     </row>
   </sheetData>
@@ -6365,28 +6365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.52232599296366</v>
+        <v>73.6010650636012</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.33634001257943</v>
+        <v>100.7042242698052</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.95546826403148</v>
+        <v>91.09315444478662</v>
       </c>
       <c r="AD2" t="n">
-        <v>56522.32599296366</v>
+        <v>73601.0650636012</v>
       </c>
       <c r="AE2" t="n">
-        <v>77336.34001257943</v>
+        <v>100704.2242698052</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.18805845076101e-06</v>
+        <v>1.039948534286523e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.25925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>69955.46826403149</v>
+        <v>91093.15444478662</v>
       </c>
     </row>
     <row r="3">
@@ -6471,28 +6471,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.66885348940075</v>
+        <v>60.66225170546667</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.74965187802736</v>
+        <v>83.00076901305552</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.04722896196367</v>
+        <v>75.07929211077999</v>
       </c>
       <c r="AD3" t="n">
-        <v>43668.85348940075</v>
+        <v>60662.25170546667</v>
       </c>
       <c r="AE3" t="n">
-        <v>59749.65187802736</v>
+        <v>83000.76901305551</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.833696200980898e-06</v>
+        <v>1.278034879581414e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.466435185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>54047.22896196366</v>
+        <v>75079.29211077999</v>
       </c>
     </row>
     <row r="4">
@@ -6577,28 +6577,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>42.72766560959023</v>
+        <v>59.72106382565616</v>
       </c>
       <c r="AB4" t="n">
-        <v>58.46187709859251</v>
+        <v>81.71299423362065</v>
       </c>
       <c r="AC4" t="n">
-        <v>52.88235760007441</v>
+        <v>73.91442074889072</v>
       </c>
       <c r="AD4" t="n">
-        <v>42727.66560959023</v>
+        <v>59721.06382565616</v>
       </c>
       <c r="AE4" t="n">
-        <v>58461.87709859251</v>
+        <v>81712.99423362064</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.24772608081329e-06</v>
+        <v>1.337935584289364e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.310185185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>52882.35760007441</v>
+        <v>73914.42074889073</v>
       </c>
     </row>
     <row r="5">
@@ -6683,28 +6683,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>42.12472460467951</v>
+        <v>50.70680932156308</v>
       </c>
       <c r="AB5" t="n">
-        <v>57.63690661562986</v>
+        <v>69.37929354028488</v>
       </c>
       <c r="AC5" t="n">
-        <v>52.13612114225511</v>
+        <v>62.75783113926536</v>
       </c>
       <c r="AD5" t="n">
-        <v>42124.72460467951</v>
+        <v>50706.80932156308</v>
       </c>
       <c r="AE5" t="n">
-        <v>57636.90661562986</v>
+        <v>69379.29354028488</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.476736854391467e-06</v>
+        <v>1.371068233383673e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.234953703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>52136.12114225511</v>
+        <v>62757.83113926536</v>
       </c>
     </row>
   </sheetData>
@@ -6980,28 +6980,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.69670546680069</v>
+        <v>56.7177317326094</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.68302783143547</v>
+        <v>77.60370276625541</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.36871780693232</v>
+        <v>70.19731429174271</v>
       </c>
       <c r="AD2" t="n">
-        <v>40696.7054668007</v>
+        <v>56717.7317326094</v>
       </c>
       <c r="AE2" t="n">
-        <v>55683.02783143547</v>
+        <v>77603.7027662554</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.511692967759749e-06</v>
+        <v>1.428356298310793e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.483796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>50368.71780693232</v>
+        <v>70197.31429174272</v>
       </c>
     </row>
     <row r="3">
@@ -7086,28 +7086,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.73723191001117</v>
+        <v>46.83313065176398</v>
       </c>
       <c r="AB3" t="n">
-        <v>53.00198966517674</v>
+        <v>64.07915548962664</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.94355416039264</v>
+        <v>57.96353082536977</v>
       </c>
       <c r="AD3" t="n">
-        <v>38737.23191001117</v>
+        <v>46833.13065176398</v>
       </c>
       <c r="AE3" t="n">
-        <v>53001.98966517673</v>
+        <v>64079.15548962664</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.077875800321643e-05</v>
+        <v>1.61862950518347e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.072916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>47943.55416039264</v>
+        <v>57963.53082536977</v>
       </c>
     </row>
   </sheetData>
@@ -7383,28 +7383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.57210314925604</v>
+        <v>45.43038464989017</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.40780909286611</v>
+        <v>62.15985652507786</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.50151994445211</v>
+        <v>56.22740706024391</v>
       </c>
       <c r="AD2" t="n">
-        <v>37572.10314925604</v>
+        <v>45430.38464989017</v>
       </c>
       <c r="AE2" t="n">
-        <v>51407.80909286611</v>
+        <v>62159.85652507786</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.102780168102968e-05</v>
+        <v>1.691385497559171e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.130787037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>46501.51994445211</v>
+        <v>56227.40706024391</v>
       </c>
     </row>
     <row r="3">
@@ -7489,28 +7489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.33774867725304</v>
+        <v>45.19603017788714</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.08715496528354</v>
+        <v>61.83920239749385</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.21146859676417</v>
+        <v>55.93735571255552</v>
       </c>
       <c r="AD3" t="n">
-        <v>37337.74867725304</v>
+        <v>45196.03017788714</v>
       </c>
       <c r="AE3" t="n">
-        <v>51087.15496528354</v>
+        <v>61839.20239749385</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.126261346243606e-05</v>
+        <v>1.727399678192287e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.06712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>46211.46859676417</v>
+        <v>55937.35571255552</v>
       </c>
     </row>
   </sheetData>
@@ -12719,28 +12719,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.25440688324693</v>
+        <v>43.92275648189182</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.60487892906469</v>
+        <v>60.09705315376296</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.87065890505016</v>
+        <v>54.36147474752392</v>
       </c>
       <c r="AD2" t="n">
-        <v>36254.40688324693</v>
+        <v>43922.75648189183</v>
       </c>
       <c r="AE2" t="n">
-        <v>49604.87892906469</v>
+        <v>60097.05315376296</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.154111468701231e-05</v>
+        <v>1.803276404575067e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.096064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>44870.65890505016</v>
+        <v>54361.47474752392</v>
       </c>
     </row>
   </sheetData>
@@ -13016,28 +13016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.44877118348452</v>
+        <v>48.86169130122379</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.13432850563671</v>
+        <v>66.85472166399585</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.63589434658749</v>
+        <v>60.47420085958967</v>
       </c>
       <c r="AD2" t="n">
-        <v>34448.77118348452</v>
+        <v>48861.69130122379</v>
       </c>
       <c r="AE2" t="n">
-        <v>47134.32850563671</v>
+        <v>66854.72166399585</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.126899381507327e-05</v>
+        <v>1.836481026442712e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.402777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>42635.89434658749</v>
+        <v>60474.20085958967</v>
       </c>
     </row>
   </sheetData>
@@ -13313,28 +13313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.04710230143144</v>
+        <v>59.64149357987361</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.89894447292166</v>
+        <v>81.60412271294952</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.27771187762564</v>
+        <v>73.81593977335027</v>
       </c>
       <c r="AD2" t="n">
-        <v>43047.10230143143</v>
+        <v>59641.49357987361</v>
       </c>
       <c r="AE2" t="n">
-        <v>58898.94447292166</v>
+        <v>81604.12271294952</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.638277690124373e-06</v>
+        <v>1.27620256456497e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.709490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>53277.71187762564</v>
+        <v>73815.93977335027</v>
       </c>
     </row>
     <row r="3">
@@ -13419,28 +13419,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.41987440509481</v>
+        <v>48.71715955287014</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.3042553598868</v>
+        <v>66.65696694960776</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.02609484845663</v>
+        <v>60.29531957759223</v>
       </c>
       <c r="AD3" t="n">
-        <v>40419.87440509481</v>
+        <v>48717.15955287014</v>
       </c>
       <c r="AE3" t="n">
-        <v>55304.2553598868</v>
+        <v>66656.96694960777</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.007705818788506e-05</v>
+        <v>1.488765233531661e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.18287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>50026.09484845663</v>
+        <v>60295.31957759223</v>
       </c>
     </row>
     <row r="4">
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>40.1009517490534</v>
+        <v>48.39823689682868</v>
       </c>
       <c r="AB4" t="n">
-        <v>54.86789131201847</v>
+        <v>66.22060290173748</v>
       </c>
       <c r="AC4" t="n">
-        <v>49.63137677287477</v>
+        <v>59.90060150200975</v>
       </c>
       <c r="AD4" t="n">
-        <v>40100.9517490534</v>
+        <v>48398.23689682868</v>
       </c>
       <c r="AE4" t="n">
-        <v>54867.89131201847</v>
+        <v>66220.60290173748</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.023010933577575e-05</v>
+        <v>1.51137671633581e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.130787037037038</v>
       </c>
       <c r="AH4" t="n">
-        <v>49631.37677287477</v>
+        <v>59900.60150200975</v>
       </c>
     </row>
   </sheetData>
@@ -13822,28 +13822,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.2638797843968</v>
+        <v>72.23659411978927</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.6144783912907</v>
+        <v>98.83729492827305</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.39793869923004</v>
+        <v>89.40440221935793</v>
       </c>
       <c r="AD2" t="n">
-        <v>55263.8797843968</v>
+        <v>72236.59411978927</v>
       </c>
       <c r="AE2" t="n">
-        <v>75614.4783912907</v>
+        <v>98837.29492827306</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.504331369072565e-06</v>
+        <v>1.089755749717854e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.114583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>68397.93869923004</v>
+        <v>89404.40221935793</v>
       </c>
     </row>
     <row r="3">
@@ -13928,28 +13928,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.29958191065695</v>
+        <v>60.18695539147781</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.24439821287807</v>
+        <v>82.3504476276628</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.59019599748809</v>
+        <v>74.49103648567714</v>
       </c>
       <c r="AD3" t="n">
-        <v>43299.58191065695</v>
+        <v>60186.95539147781</v>
       </c>
       <c r="AE3" t="n">
-        <v>59244.39821287808</v>
+        <v>82350.4476276628</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.938613229322658e-06</v>
+        <v>1.298037717431218e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.454861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>53590.19599748809</v>
+        <v>74491.03648567715</v>
       </c>
     </row>
     <row r="4">
@@ -14034,28 +14034,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>41.85803384349435</v>
+        <v>50.38710619275535</v>
       </c>
       <c r="AB4" t="n">
-        <v>57.27200855061208</v>
+        <v>68.94186161514375</v>
       </c>
       <c r="AC4" t="n">
-        <v>51.80604843642389</v>
+        <v>62.36214710311999</v>
       </c>
       <c r="AD4" t="n">
-        <v>41858.03384349435</v>
+        <v>50387.10619275535</v>
       </c>
       <c r="AE4" t="n">
-        <v>57272.00855061208</v>
+        <v>68941.86161514375</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.590899211170671e-06</v>
+        <v>1.392760666648089e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.22337962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>51806.04843642389</v>
+        <v>62362.14710311999</v>
       </c>
     </row>
     <row r="5">
@@ -14140,28 +14140,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>41.60871850943606</v>
+        <v>50.13779085869703</v>
       </c>
       <c r="AB5" t="n">
-        <v>56.93088431153893</v>
+        <v>68.60073737606905</v>
       </c>
       <c r="AC5" t="n">
-        <v>51.49748061595598</v>
+        <v>62.0535792826516</v>
       </c>
       <c r="AD5" t="n">
-        <v>41608.71850943606</v>
+        <v>50137.79085869703</v>
       </c>
       <c r="AE5" t="n">
-        <v>56930.88431153892</v>
+        <v>68600.73737606905</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.69002319384594e-06</v>
+        <v>1.407155144282764e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.188657407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>51497.48061595598</v>
+        <v>62053.5792826516</v>
       </c>
     </row>
   </sheetData>
@@ -14437,28 +14437,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.71900639775168</v>
+        <v>47.95033433827586</v>
       </c>
       <c r="AB2" t="n">
-        <v>46.13583213085172</v>
+        <v>65.60776286105953</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.73269306441055</v>
+        <v>59.34625005468749</v>
       </c>
       <c r="AD2" t="n">
-        <v>33719.00639775168</v>
+        <v>47950.33433827586</v>
       </c>
       <c r="AE2" t="n">
-        <v>46135.83213085172</v>
+        <v>65607.76286105953</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.047947228924988e-05</v>
+        <v>1.7468655949262e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.784722222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>41732.69306441055</v>
+        <v>59346.25005468749</v>
       </c>
     </row>
   </sheetData>
@@ -14734,28 +14734,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.58286873675581</v>
+        <v>46.52549922112554</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.79078316150718</v>
+        <v>63.65824059448644</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.7525049090025</v>
+        <v>57.58278745706387</v>
       </c>
       <c r="AD2" t="n">
-        <v>38582.86873675581</v>
+        <v>46525.49922112554</v>
       </c>
       <c r="AE2" t="n">
-        <v>52790.78316150718</v>
+        <v>63658.24059448644</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.050198947484708e-05</v>
+        <v>1.598304732302287e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.24074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>47752.5049090025</v>
+        <v>57582.78745706387</v>
       </c>
     </row>
     <row r="3">
@@ -14840,28 +14840,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.72764095696765</v>
+        <v>45.67027144133725</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.62062278321989</v>
+        <v>62.4880802161939</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.69402299488506</v>
+        <v>56.52430554294479</v>
       </c>
       <c r="AD3" t="n">
-        <v>37727.64095696765</v>
+        <v>45670.27144133725</v>
       </c>
       <c r="AE3" t="n">
-        <v>51620.62278321989</v>
+        <v>62488.0802161939</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.120068376235258e-05</v>
+        <v>1.704639478573671e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.038194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>46694.02299488506</v>
+        <v>56524.30554294478</v>
       </c>
     </row>
   </sheetData>
@@ -15137,28 +15137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.80353391361552</v>
+        <v>58.13597621968108</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.19743934218501</v>
+        <v>79.54420744199682</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.73859600859033</v>
+        <v>71.9526199247474</v>
       </c>
       <c r="AD2" t="n">
-        <v>41803.53391361552</v>
+        <v>58135.97621968108</v>
       </c>
       <c r="AE2" t="n">
-        <v>57197.439342185</v>
+        <v>79544.20744199681</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.058458546115172e-06</v>
+        <v>1.352346963484445e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.616898148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>51738.59600859034</v>
+        <v>71952.6199247474</v>
       </c>
     </row>
     <row r="3">
@@ -15243,28 +15243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.28750223964026</v>
+        <v>47.4538129012254</v>
       </c>
       <c r="AB3" t="n">
-        <v>53.75489380638522</v>
+        <v>64.92840032590763</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.62460218707403</v>
+        <v>58.73172492639899</v>
       </c>
       <c r="AD3" t="n">
-        <v>39287.50223964026</v>
+        <v>47453.81290122541</v>
       </c>
       <c r="AE3" t="n">
-        <v>53754.89380638522</v>
+        <v>64928.40032590763</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.050691310303821e-05</v>
+        <v>1.568588293267881e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.119212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>48624.60218707403</v>
+        <v>58731.72492639899</v>
       </c>
     </row>
     <row r="4">
@@ -15349,28 +15349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>39.18040768989334</v>
+        <v>47.34671835147847</v>
       </c>
       <c r="AB4" t="n">
-        <v>53.60836231874411</v>
+        <v>64.78186883826585</v>
       </c>
       <c r="AC4" t="n">
-        <v>48.49205545895471</v>
+        <v>58.59917819827946</v>
       </c>
       <c r="AD4" t="n">
-        <v>39180.40768989334</v>
+        <v>47346.71835147847</v>
       </c>
       <c r="AE4" t="n">
-        <v>53608.3623187441</v>
+        <v>64781.86883826584</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.06385650626882e-05</v>
+        <v>1.588242755112915e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.078703703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>48492.05545895471</v>
+        <v>58599.17819827946</v>
       </c>
     </row>
   </sheetData>
